--- a/excel/doctor.xlsx
+++ b/excel/doctor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,21 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MRI1.jpg</t>
+          <t>download (1).jpeg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.42541074752808</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>samir karche.jpg</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17.47159659862518</v>
+        <v>66.06777906417847</v>
       </c>
     </row>
   </sheetData>

--- a/excel/doctor.xlsx
+++ b/excel/doctor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>download (1).jpeg</t>
+          <t>WhatsApp Image 2024-04-02 at 19.33.30_b8a6aea0.jpg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.06777906417847</v>
+        <v>99.79430437088013</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WhatsApp Image 2024-04-02 at 19.27.16_7331ad80.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91.04604721069336</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>notomour.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.95359283685684</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>notumor.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04750591469928622</v>
       </c>
     </row>
   </sheetData>
